--- a/data/Behavioral/description/WASI.xlsx
+++ b/data/Behavioral/description/WASI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="460" windowWidth="25120" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="12100" yWindow="460" windowWidth="25120" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -186,21 +186,6 @@
   </si>
   <si>
     <t>Full Scale IQ Percentile</t>
-  </si>
-  <si>
-    <t>VC_Precentile</t>
-  </si>
-  <si>
-    <t>PR_Percentile</t>
-  </si>
-  <si>
-    <t>FS_Percentile</t>
-  </si>
-  <si>
-    <t>Full_Scale</t>
-  </si>
-  <si>
-    <t>Full Scale Sum of T-Scores</t>
   </si>
 </sst>
 </file>
@@ -659,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A8" sqref="A8:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,12 +658,12 @@
     <col min="5" max="5" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -711,8 +696,11 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -722,8 +710,11 @@
       <c r="C4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -739,8 +730,11 @@
       <c r="E5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -756,13 +750,16 @@
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -773,7 +770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -784,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -795,7 +792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -806,7 +803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -817,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -828,7 +825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -839,7 +836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -850,7 +847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -896,10 +893,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -907,21 +904,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>32</v>
@@ -929,58 +926,29 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
